--- a/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
+++ b/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\识别语言\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="490">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2028,6 +2028,10 @@
   </si>
   <si>
     <t>越南傣文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A00-0A7F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2517,10 +2521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2783,7 +2787,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>53</v>
       </c>
@@ -2795,6 +2799,277 @@
       </c>
       <c r="D19" s="11" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" t="s">
+        <v>370</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" t="s">
+        <v>488</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2806,11 +3081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2849,7 +3124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2863,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2877,7 +3152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2891,7 +3166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2905,7 +3180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2919,7 +3194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2933,7 +3208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2947,7 +3222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2961,7 +3236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2975,7 +3250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3031,7 +3306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3045,7 +3320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3059,7 +3334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3073,7 +3348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3087,7 +3362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3101,7 +3376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3115,7 +3390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3325,7 +3600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3339,7 +3614,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3353,7 +3628,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3367,7 +3642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3381,7 +3656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3395,7 +3670,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3409,7 +3684,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3423,7 +3698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3437,7 +3712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3521,7 +3796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3577,7 +3852,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3619,7 +3894,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3633,7 +3908,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3647,7 +3922,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3675,7 +3950,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3703,7 +3978,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3717,7 +3992,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3729,7 +4004,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3743,7 +4018,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3757,7 +4032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3771,7 +4046,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3785,7 +4060,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3799,7 +4074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3813,7 +4088,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3827,7 +4102,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3841,7 +4116,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3855,7 +4130,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3869,7 +4144,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3883,7 +4158,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3897,7 +4172,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3911,7 +4186,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3925,7 +4200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3939,7 +4214,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3953,7 +4228,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3967,7 +4242,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3981,7 +4256,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3995,7 +4270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4009,7 +4284,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4023,7 +4298,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4037,7 +4312,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4051,7 +4326,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4065,7 +4340,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4079,7 +4354,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4093,7 +4368,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4107,7 +4382,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4121,7 +4396,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4135,7 +4410,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4149,7 +4424,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4163,7 +4438,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4177,7 +4452,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4191,7 +4466,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4205,7 +4480,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4233,7 +4508,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -4247,7 +4522,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -4261,7 +4536,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4275,7 +4550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4289,7 +4564,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4303,7 +4578,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4317,7 +4592,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4331,7 +4606,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4345,7 +4620,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4359,7 +4634,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4373,7 +4648,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4387,7 +4662,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4401,7 +4676,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4415,7 +4690,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4429,7 +4704,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4443,7 +4718,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -4457,7 +4732,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4471,7 +4746,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4485,7 +4760,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4499,7 +4774,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -4513,7 +4788,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4527,7 +4802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -4555,7 +4830,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -4569,7 +4844,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -4583,7 +4858,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -4597,7 +4872,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -4611,7 +4886,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -4639,7 +4914,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -4653,7 +4928,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4681,7 +4956,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4695,7 +4970,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4709,7 +4984,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4723,7 +4998,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -4737,7 +5012,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -4751,7 +5026,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4765,7 +5040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4779,7 +5054,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -4807,7 +5082,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -4821,7 +5096,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -4835,7 +5110,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -4849,7 +5124,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -4877,7 +5152,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -4891,7 +5166,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -4905,7 +5180,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -4919,7 +5194,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -4933,7 +5208,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -4947,7 +5222,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -4961,7 +5236,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -4975,7 +5250,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -4989,7 +5264,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -5003,7 +5278,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -5017,7 +5292,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -5031,7 +5306,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -5045,7 +5320,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -5059,7 +5334,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -5073,7 +5348,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -5087,7 +5362,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -5102,6 +5377,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D163">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter val="*文"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B155" r:id="rId1" location="cite_note-3" display="https://zh.wikipedia.org/wiki/Unicode%E5%AD%97%E7%AC%A6%E5%B9%B3%E9%9D%A2%E6%98%A0%E5%B0%84 - cite_note-3"/>

--- a/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
+++ b/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\识别语言\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gityy\task1\yylanguagedistinguish\src\main\resources\excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$D$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$2:$H$175</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="733">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,25 +63,16 @@
     <t>0080-00FF</t>
   </si>
   <si>
-    <t>拉丁文-1补充</t>
-  </si>
-  <si>
     <t>Latin-1 Supplement</t>
   </si>
   <si>
     <t>0100-017F</t>
   </si>
   <si>
-    <t>拉丁文扩展-A</t>
-  </si>
-  <si>
     <t>Latin Extended-A</t>
   </si>
   <si>
     <t>0180-024F</t>
-  </si>
-  <si>
-    <t>拉丁文扩展-B</t>
   </si>
   <si>
     <t>Latin Extended-B</t>
@@ -158,9 +149,6 @@
     <t>0400-04FF</t>
   </si>
   <si>
-    <t>西里尔字母</t>
-  </si>
-  <si>
     <t>Cyrillic</t>
   </si>
   <si>
@@ -185,36 +173,24 @@
     <t>0590-05FF</t>
   </si>
   <si>
-    <t>希伯来文</t>
-  </si>
-  <si>
     <t>Hebrew</t>
   </si>
   <si>
     <t>0600-06FF</t>
   </si>
   <si>
-    <t>阿拉伯文</t>
-  </si>
-  <si>
     <t>Arabic</t>
   </si>
   <si>
     <t>0700-074F</t>
   </si>
   <si>
-    <t>叙利亚文</t>
-  </si>
-  <si>
     <t>Syriac</t>
   </si>
   <si>
     <t>0750-077F</t>
   </si>
   <si>
-    <t>阿拉伯文补充</t>
-  </si>
-  <si>
     <t>Arabic Supplement</t>
   </si>
   <si>
@@ -266,18 +242,12 @@
     <t>08A0-08FF</t>
   </si>
   <si>
-    <t>阿拉伯文扩展-A</t>
-  </si>
-  <si>
     <t>Arabic Extended-A</t>
   </si>
   <si>
     <t>0900-097F</t>
   </si>
   <si>
-    <t>天城文</t>
-  </si>
-  <si>
     <t>Devanagari</t>
   </si>
   <si>
@@ -302,9 +272,6 @@
     <t>0A80-0AFF</t>
   </si>
   <si>
-    <t>古吉拉特文</t>
-  </si>
-  <si>
     <t>Gujarati</t>
   </si>
   <si>
@@ -320,63 +287,42 @@
     <t>0B80-0BFF</t>
   </si>
   <si>
-    <t>泰米尔文</t>
-  </si>
-  <si>
     <t>Tamil</t>
   </si>
   <si>
     <t>0C00-0C7F</t>
   </si>
   <si>
-    <t>泰卢固文</t>
-  </si>
-  <si>
     <t>Telugu</t>
   </si>
   <si>
     <t>0C80-0CFF</t>
   </si>
   <si>
-    <t>卡纳达文</t>
-  </si>
-  <si>
     <t>Kannada</t>
   </si>
   <si>
     <t>0D00-0D7F</t>
   </si>
   <si>
-    <t>马拉雅拉姆文</t>
-  </si>
-  <si>
     <t>Malayalam</t>
   </si>
   <si>
     <t>0D80-0DFF</t>
   </si>
   <si>
-    <t>僧伽罗文</t>
-  </si>
-  <si>
     <t>Sinhala</t>
   </si>
   <si>
     <t>0E00-0E7F</t>
   </si>
   <si>
-    <t>泰文</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
     <t>0E80-0EFF</t>
   </si>
   <si>
-    <t>老挝文</t>
-  </si>
-  <si>
     <t>Lao</t>
   </si>
   <si>
@@ -390,9 +336,6 @@
   </si>
   <si>
     <t>1000-109F</t>
-  </si>
-  <si>
-    <t>缅甸文</t>
   </si>
   <si>
     <t>Myanmar</t>
@@ -533,16 +476,10 @@
     <t>1780-17FF</t>
   </si>
   <si>
-    <t>高棉文</t>
-  </si>
-  <si>
     <t>Khmer</t>
   </si>
   <si>
     <t>1800-18AF</t>
-  </si>
-  <si>
-    <t>蒙古文</t>
   </si>
   <si>
     <t>Mongolian</t>
@@ -762,9 +699,6 @@
   </si>
   <si>
     <t>1E00-1EFF</t>
-  </si>
-  <si>
-    <t>拉丁文扩展附加</t>
   </si>
   <si>
     <t>Latin Extended Additional</t>
@@ -1462,21 +1396,6 @@
     <t>A720-A7FF</t>
   </si>
   <si>
-    <r>
-      <t>拉丁文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扩展-D</t>
-    </r>
-  </si>
-  <si>
     <t>Latin Extended-D</t>
   </si>
   <si>
@@ -1588,9 +1507,6 @@
     <t>A9E0-A9FF</t>
   </si>
   <si>
-    <t>缅甸文扩展-B</t>
-  </si>
-  <si>
     <t>Myanmar Extended-B</t>
   </si>
   <si>
@@ -1604,21 +1520,6 @@
   </si>
   <si>
     <t>AA60-AA7F</t>
-  </si>
-  <si>
-    <r>
-      <t>缅甸文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扩展-A</t>
-    </r>
   </si>
   <si>
     <t>Myanmar Extended-A</t>
@@ -1673,9 +1574,6 @@
   </si>
   <si>
     <t>AB30-AB6F</t>
-  </si>
-  <si>
-    <t>拉丁文扩展-E</t>
   </si>
   <si>
     <t>Latin Extended-E</t>
@@ -1883,21 +1781,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>阿拉伯字母</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表达形式-A</t>
-    </r>
-  </si>
-  <si>
     <t>Arabic Presentation Forms A</t>
   </si>
   <si>
@@ -2031,7 +1914,836 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0A00-0A7F</t>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚语</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>阿姆哈拉语</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>阿塞拜疆语</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>爱尔兰语</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>爱沙尼亚语</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>巴斯克语</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>白俄罗斯语</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>保加利亚语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>冰岛语</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>波兰语</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>波斯尼亚语</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>波斯语</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>布尔语(南非荷兰语)</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>丹麦语</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>德语</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>菲律宾语</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>芬兰语</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>弗里西语</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>高棉语</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>格鲁吉亚语</t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>古吉拉特语</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>哈萨克语</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>海地克里奥尔语</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>韩语</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>豪萨语</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>荷兰语</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>吉尔吉斯语</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>加利西亚语</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚语</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>捷克语</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>卡纳达语</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>科西嘉语</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>克罗地亚语</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>库尔德语</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>拉丁语</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>拉脱维亚语</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>老挝语</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>立陶宛语</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>卢森堡语</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>罗马尼亚语</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>马尔加什语</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>马耳他语</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>马拉地语</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>马拉雅拉姆语</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>马来语</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>马其顿语</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>毛利语</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>蒙古语</t>
+  </si>
+  <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>孟加拉语</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>缅甸语</t>
+  </si>
+  <si>
+    <t>hmn</t>
+  </si>
+  <si>
+    <t>苗语</t>
+  </si>
+  <si>
+    <t>xh</t>
+  </si>
+  <si>
+    <t>南非科萨语</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>南非祖鲁语</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>尼泊尔语</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>挪威语</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>旁遮普语</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>普什图语</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>齐切瓦语</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>瑞典语</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>萨摩亚语</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>塞尔维亚语</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>塞索托语</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>僧伽罗语</t>
+  </si>
+  <si>
+    <t>eo</t>
+  </si>
+  <si>
+    <t>世界语</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>斯洛伐克语</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚语</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>斯瓦希里语</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>苏格兰盖尔语</t>
+  </si>
+  <si>
+    <t>ceb</t>
+  </si>
+  <si>
+    <t>宿务语</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>索马里语</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>塔吉克语</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>泰卢固语</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>泰米尔语</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>泰语</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>土耳其语</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>威尔士语</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>乌尔都语</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>乌克兰语</t>
+  </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>乌兹别克语</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>iw</t>
+  </si>
+  <si>
+    <t>希伯来语</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
+    <t>haw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏威夷语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>信德语</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>匈牙利语</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>修纳语</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>亚美尼亚语</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>伊博语</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>意第绪语</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>印地语</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>印尼巽他语</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>印尼语</t>
+  </si>
+  <si>
+    <t>jw</t>
+  </si>
+  <si>
+    <t>印尼爪哇语</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>约鲁巴语</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>越南语</t>
+  </si>
+  <si>
+    <t>zh-CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>n'</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>cj</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>阿拉贡语</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>阿斯图里亚斯语</t>
+  </si>
+  <si>
+    <t>布兰顿语</t>
+  </si>
+  <si>
+    <t>保加利亚语</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>奥克语</t>
+  </si>
+  <si>
+    <t>tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>瓦隆语</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>zh-tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁体中文</t>
+  </si>
+  <si>
+    <t>西里尔字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙利亚文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天城文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB50-FDFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,7 +2751,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2098,8 +2810,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,6 +2848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,7 +2914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2215,6 +2948,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2521,13 +3258,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -2535,7 +3272,7 @@
     <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2545,532 +3282,292 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="4">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="4">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="4">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="4">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="4">
         <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="4">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="4">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="4">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="4">
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>618</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="4">
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="4">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>725</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="4">
         <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>726</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="4">
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
       <c r="A15" s="4">
         <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>620</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="4">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>324</v>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>727</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1">
       <c r="A17" s="8">
         <v>51</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>327</v>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>568</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="10">
         <v>52</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>729</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1">
       <c r="A19" s="10">
         <v>53</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>730</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1">
       <c r="A20" s="10">
         <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="10">
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1">
       <c r="A22" s="10">
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1">
       <c r="A23" s="10">
         <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1">
       <c r="A24" s="10">
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>489</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="10">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
+      <c r="B25" t="s">
+        <v>732</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>53</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" t="s">
-        <v>301</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C35" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>53</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C36" t="s">
-        <v>388</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" t="s">
-        <v>397</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C38" t="s">
-        <v>488</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C39" t="s">
-        <v>438</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>439</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3082,21 +3579,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:D147"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3109,8 +3608,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3123,8 +3628,21 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" t="e">
+        <f>VLOOKUP(E2,G:H,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3132,2256 +3650,4458 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">VLOOKUP(E3,G:H,2,0)</f>
+        <v>拉丁语</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>拉丁语</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>538</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>拉丁语</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>532</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>673</v>
+      </c>
+      <c r="F9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>722</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>624</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>威尔士语</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>威尔士语</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>674</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>674</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>希伯来语</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>466</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>466</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>723</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>675</v>
+      </c>
+      <c r="F15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>466</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>620</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>泰语</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>676</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>677</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>678</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>675</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>466</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>724</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>德语</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>478</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>白俄罗斯语</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>510</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>古吉拉特语</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>510</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>古吉拉特语</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>679</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>618</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>618</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>泰米尔语</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>616</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>616</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>泰卢固语</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>725</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>725</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(E30,G:H,2,0)</f>
+        <v>卡纳达语</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>726</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>726</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>马拉雅拉姆语</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>598</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>598</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>僧伽罗语</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>620</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>620</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>泰语</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>727</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>727</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>老挝语</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>728</v>
+      </c>
+      <c r="F35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>568</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>568</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>缅甸语</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>681</v>
+      </c>
+      <c r="F37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>518</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>474</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>爱沙尼亚语</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>474</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>爱沙尼亚语</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>682</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>683</v>
+      </c>
+      <c r="F42" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>684</v>
+      </c>
+      <c r="F43" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>496</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>俄语</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
+        <v>618</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>泰米尔语</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>518</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
+        <v>685</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>618</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>泰米尔语</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>146</v>
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>729</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>729</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>高棉语</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>730</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>730</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>蒙古语</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29.25" hidden="1" thickBot="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>683</v>
+      </c>
+      <c r="F51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>688</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>731</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>576</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>尼泊尔语</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>686</v>
+      </c>
+      <c r="F55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>685</v>
+      </c>
+      <c r="F56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>618</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>泰米尔语</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="E58" t="s">
+        <v>532</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="E59" t="s">
+        <v>670</v>
+      </c>
+      <c r="F59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>656</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="E61" t="s">
+        <v>670</v>
+      </c>
+      <c r="F61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
+        <v>689</v>
+      </c>
+      <c r="F62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>690</v>
+      </c>
+      <c r="F63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="E64" t="s">
+        <v>624</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>威尔士语</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>691</v>
+      </c>
+      <c r="F65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="E66" t="s">
+        <v>656</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>692</v>
+      </c>
+      <c r="F67" t="e">
+        <f t="shared" ref="F67:F130" si="1">VLOOKUP(E67,G:H,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>693</v>
+      </c>
+      <c r="F68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
+        <v>693</v>
+      </c>
+      <c r="F69" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E70" t="s">
+        <v>532</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>拉丁语</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>673</v>
+      </c>
+      <c r="F72" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E73" t="s">
+        <v>681</v>
+      </c>
+      <c r="F73" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="E74" t="s">
+        <v>656</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="E75" t="s">
+        <v>694</v>
+      </c>
+      <c r="F75" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="E76" t="s">
+        <v>532</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="E77" t="s">
+        <v>689</v>
+      </c>
+      <c r="F77" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="E78" t="s">
+        <v>695</v>
+      </c>
+      <c r="F78" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="E79" t="s">
+        <v>466</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="E80" t="s">
+        <v>678</v>
+      </c>
+      <c r="F80" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>562</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>毛利语</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="E82" t="s">
+        <v>532</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="E83" t="s">
+        <v>696</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="E84" t="s">
+        <v>662</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>英语</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="E85" t="s">
+        <v>697</v>
+      </c>
+      <c r="F85" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="E86" t="s">
+        <v>698</v>
+      </c>
+      <c r="F86" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E87" t="s">
+        <v>681</v>
+      </c>
+      <c r="F87" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E88" t="s">
+        <v>562</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>毛利语</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E89" t="s">
+        <v>699</v>
+      </c>
+      <c r="F89" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="E90" t="s">
+        <v>562</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>毛利语</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="E91" t="s">
+        <v>656</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="E92" t="s">
+        <v>700</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>布兰顿语</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="E93" t="s">
+        <v>656</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="E94" t="s">
+        <v>562</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>毛利语</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="E95" t="s">
+        <v>656</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="E96" t="s">
+        <v>562</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>毛利语</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="E97" t="s">
+        <v>524</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>加利西亚语</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="E98" t="s">
+        <v>538</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>拉丁语</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="E99" t="s">
+        <v>532</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C100" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="E100" t="s">
+        <v>681</v>
+      </c>
+      <c r="F100" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="E101" t="s">
+        <v>680</v>
+      </c>
+      <c r="F101" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="E102" t="s">
+        <v>474</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>爱沙尼亚语</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="E103" t="s">
+        <v>624</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>威尔士语</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="E104" t="s">
+        <v>656</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>印尼巽他语</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="E105" t="s">
+        <v>701</v>
+      </c>
+      <c r="F105" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="E106" t="s">
+        <v>508</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>格鲁吉亚语</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="E107" t="s">
+        <v>658</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>印尼语</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="E108" t="s">
+        <v>701</v>
+      </c>
+      <c r="F108" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="E109" t="s">
+        <v>654</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>印地语</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="E110" t="s">
+        <v>508</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>格鲁吉亚语</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="E111" t="s">
+        <v>697</v>
+      </c>
+      <c r="F111" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="E112" t="s">
+        <v>518</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="E113" t="s">
+        <v>508</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v>格鲁吉亚语</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="E114" t="s">
+        <v>697</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="E115" t="s">
+        <v>701</v>
+      </c>
+      <c r="F115" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="E116" t="s">
+        <v>508</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v>格鲁吉亚语</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="E117" t="s">
+        <v>662</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>英语</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="E118" t="s">
+        <v>701</v>
+      </c>
+      <c r="F118" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="E119" t="s">
+        <v>701</v>
+      </c>
+      <c r="F119" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C120" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="E120" t="s">
+        <v>652</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v>意第绪语</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="E121" t="s">
+        <v>701</v>
+      </c>
+      <c r="F121" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C122" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="E122" t="s">
+        <v>652</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v>意第绪语</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="E123" t="s">
+        <v>652</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v>意第绪语</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C124" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="E124" t="s">
+        <v>688</v>
+      </c>
+      <c r="F124" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="E125" t="s">
+        <v>702</v>
+      </c>
+      <c r="F125" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C126" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="E126" t="s">
+        <v>624</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v>威尔士语</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C127" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="E127" t="s">
+        <v>670</v>
+      </c>
+      <c r="F127" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="E128" t="s">
+        <v>687</v>
+      </c>
+      <c r="F128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C129" t="s">
-        <v>385</v>
+        <v>538</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="E129" t="s">
+        <v>538</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v>拉丁语</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="E130" t="s">
+        <v>675</v>
+      </c>
+      <c r="F130" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="E131" t="s">
+        <v>532</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F163" si="2">VLOOKUP(E131,G:H,2,0)</f>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="E132" t="s">
+        <v>693</v>
+      </c>
+      <c r="F132" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C133" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="E133" t="s">
+        <v>677</v>
+      </c>
+      <c r="F133" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="E134" t="s">
+        <v>494</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>德语</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C135" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="E135" t="s">
+        <v>508</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>格鲁吉亚语</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C136" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="E136" t="s">
+        <v>703</v>
+      </c>
+      <c r="F136" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="C137" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+      <c r="E137" t="s">
+        <v>518</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="C138" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="E138" t="s">
+        <v>588</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>日语</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" thickBot="1">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
+      </c>
+      <c r="C139" t="s">
+        <v>568</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="E139" t="s">
+        <v>568</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>缅甸语</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C140" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="E140" t="s">
+        <v>682</v>
+      </c>
+      <c r="F140" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" thickBot="1">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="C141" t="s">
-        <v>421</v>
+        <v>568</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="E141" t="s">
+        <v>568</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>缅甸语</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C142" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="E142" t="s">
+        <v>618</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>泰米尔语</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="C143" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="E143" t="s">
+        <v>704</v>
+      </c>
+      <c r="F143" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="E144" t="s">
+        <v>474</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v>爱沙尼亚语</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>432</v>
+        <v>406</v>
+      </c>
+      <c r="C145" t="s">
+        <v>538</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="E145" t="s">
+        <v>538</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v>拉丁语</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C146" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="E146" t="s">
+        <v>682</v>
+      </c>
+      <c r="F146" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C147" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="E147" t="s">
+        <v>704</v>
+      </c>
+      <c r="F147" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="E148" t="s">
+        <v>518</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="E149" t="s">
+        <v>518</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="E150" t="s">
+        <v>654</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v>印地语</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="E151" t="s">
+        <v>542</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v>老挝语</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+      <c r="E152" t="s">
+        <v>705</v>
+      </c>
+      <c r="F152" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="E153" t="s">
+        <v>701</v>
+      </c>
+      <c r="F153" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="43.5" hidden="1" thickBot="1">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="E154" t="s">
+        <v>706</v>
+      </c>
+      <c r="F154" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" thickBot="1">
       <c r="A155" s="6">
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C155" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="E155" t="s">
+        <v>466</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C156" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="E156" t="s">
+        <v>702</v>
+      </c>
+      <c r="F156" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="C157" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="E157" t="s">
+        <v>692</v>
+      </c>
+      <c r="F157" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="E158" t="s">
+        <v>532</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="2"/>
+        <v>科西嘉语</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="E159" t="s">
+        <v>701</v>
+      </c>
+      <c r="F159" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="E160" t="s">
+        <v>592</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="2"/>
+        <v>萨摩亚语</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="E161" t="s">
+        <v>466</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="2"/>
+        <v>阿拉伯语</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="E162" t="s">
+        <v>518</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="2"/>
+        <v>豪萨语</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>487</v>
+        <v>460</v>
+      </c>
+      <c r="E163" t="s">
+        <v>672</v>
+      </c>
+      <c r="F163" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="14.25" hidden="1">
+      <c r="G164" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="14.25" hidden="1">
+      <c r="G165" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="14.25" hidden="1">
+      <c r="G166" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="14.25" hidden="1">
+      <c r="G167" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="14.25" hidden="1">
+      <c r="G168" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="14.25" hidden="1">
+      <c r="G169" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="14.25" hidden="1">
+      <c r="G170" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14.25" hidden="1">
+      <c r="G171" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="14.25" hidden="1">
+      <c r="G172" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14.25" hidden="1">
+      <c r="G173" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="14.25" hidden="1">
+      <c r="G174" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="14.25" hidden="1">
+      <c r="G175" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D163">
+  <autoFilter ref="A2:H175">
     <filterColumn colId="2">
-      <customFilters>
-        <customFilter val="*文"/>
-      </customFilters>
+      <filters>
+        <filter val="ar"/>
+        <filter val="gu"/>
+        <filter val="he"/>
+        <filter val="km"/>
+        <filter val="kn"/>
+        <filter val="la"/>
+        <filter val="lo"/>
+        <filter val="ml"/>
+        <filter val="mn"/>
+        <filter val="my"/>
+        <filter val="si"/>
+        <filter val="ta"/>
+        <filter val="te"/>
+        <filter val="th"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
+++ b/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$2:$H$175</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="733">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3258,10 +3258,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3286,288 +3286,218 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="4">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>674</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="4">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="4">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>674</v>
+        <v>466</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="4">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>618</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="4">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>616</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>510</v>
+        <v>725</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
+        <v>726</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="4">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>725</v>
+        <v>620</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>726</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>727</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
-      <c r="A14" s="4">
-        <v>48</v>
+      <c r="A14" s="8">
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>598</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>568</v>
+      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="4">
-        <v>49</v>
+      <c r="A15" s="10">
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>729</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="4">
-        <v>50</v>
+      <c r="A16" s="10">
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>727</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>730</v>
+      </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1">
-      <c r="A17" s="8">
-        <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
+      <c r="A17" s="10">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="C17" t="s">
         <v>568</v>
       </c>
-      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="10">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C18" t="s">
-        <v>729</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>568</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1">
       <c r="A19" s="10">
         <v>53</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>128</v>
+      <c r="B19" t="s">
+        <v>732</v>
       </c>
       <c r="C19" t="s">
-        <v>730</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1">
-      <c r="A20" s="10">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
-      <c r="A21" s="10">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1">
-      <c r="A22" s="10">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1">
-      <c r="A23" s="10">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1">
-      <c r="A24" s="10">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C24" t="s">
-        <v>538</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
-      <c r="A25" s="10">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>732</v>
-      </c>
-      <c r="C25" t="s">
         <v>466</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3578,11 +3508,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C155"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3723,7 +3653,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3750,7 +3680,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3777,7 +3707,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3804,7 +3734,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3831,7 +3761,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3858,7 +3788,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3885,7 +3815,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3966,7 +3896,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="15" spans="1:8" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4020,7 +3950,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4047,7 +3977,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4074,7 +4004,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4101,7 +4031,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4128,7 +4058,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4182,7 +4112,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4209,7 +4139,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4236,7 +4166,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4290,7 +4220,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4506,7 +4436,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4560,7 +4490,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4587,7 +4517,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4614,7 +4544,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4641,7 +4571,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15" thickBot="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4668,7 +4598,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4695,7 +4625,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15" thickBot="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4722,7 +4652,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15" thickBot="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4749,7 +4679,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15" thickBot="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4776,7 +4706,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15" thickBot="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4803,7 +4733,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15" thickBot="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4830,7 +4760,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="15" thickBot="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4857,7 +4787,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="15" thickBot="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4938,7 +4868,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="29.25" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="29.25" thickBot="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4965,7 +4895,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4992,7 +4922,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5019,7 +4949,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5046,7 +4976,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5073,7 +5003,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5100,7 +5030,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5127,7 +5057,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15" thickBot="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5154,7 +5084,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5181,7 +5111,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5208,7 +5138,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5235,7 +5165,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5262,7 +5192,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5289,7 +5219,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5316,7 +5246,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5341,7 +5271,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15" thickBot="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5368,7 +5298,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5395,7 +5325,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15" thickBot="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5422,7 +5352,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5449,7 +5379,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15" thickBot="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5503,7 +5433,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5530,7 +5460,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5557,7 +5487,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15" thickBot="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5584,7 +5514,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5611,7 +5541,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="15" thickBot="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5638,7 +5568,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5665,7 +5595,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15" thickBot="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5692,7 +5622,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5719,7 +5649,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5746,7 +5676,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5773,7 +5703,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15" thickBot="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5800,7 +5730,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5827,7 +5757,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15" thickBot="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5854,7 +5784,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5881,7 +5811,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15" thickBot="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5908,7 +5838,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5935,7 +5865,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15" thickBot="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5962,7 +5892,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5989,7 +5919,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15" thickBot="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6016,7 +5946,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6043,7 +5973,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15" thickBot="1">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6070,7 +6000,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6097,7 +6027,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="15" thickBot="1">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6124,7 +6054,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6151,7 +6081,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="15" thickBot="1">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6178,7 +6108,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="97" spans="1:8" ht="15" thickBot="1">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6205,7 +6135,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="98" spans="1:8" ht="15" thickBot="1">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6232,7 +6162,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="99" spans="1:8" ht="15" thickBot="1">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6259,7 +6189,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="100" spans="1:8" ht="15" thickBot="1">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6286,7 +6216,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="101" spans="1:8" ht="15" thickBot="1">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -6313,7 +6243,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="102" spans="1:8" ht="15" thickBot="1">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6340,7 +6270,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="103" spans="1:8" ht="15" thickBot="1">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -6367,7 +6297,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="104" spans="1:8" ht="15" thickBot="1">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6394,7 +6324,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="105" spans="1:8" ht="15" thickBot="1">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -6421,7 +6351,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="106" spans="1:8" ht="15" thickBot="1">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -6448,7 +6378,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="107" spans="1:8" ht="15" thickBot="1">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -6475,7 +6405,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="108" spans="1:8" ht="15" thickBot="1">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -6502,7 +6432,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="109" spans="1:8" ht="15" thickBot="1">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -6529,7 +6459,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="110" spans="1:8" ht="15" thickBot="1">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -6556,7 +6486,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="111" spans="1:8" ht="15" thickBot="1">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -6583,7 +6513,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="112" spans="1:8" ht="15" thickBot="1">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -6610,7 +6540,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="15" thickBot="1">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -6637,7 +6567,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="15" thickBot="1">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -6664,7 +6594,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="15" thickBot="1">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -6691,7 +6621,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15" thickBot="1">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -6718,7 +6648,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15" thickBot="1">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6745,7 +6675,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="15" thickBot="1">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6772,7 +6702,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15" thickBot="1">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6799,7 +6729,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="15" thickBot="1">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6826,7 +6756,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15" thickBot="1">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6853,7 +6783,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15" thickBot="1">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6880,7 +6810,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="15" thickBot="1">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6907,7 +6837,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="15" thickBot="1">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6934,7 +6864,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="15" thickBot="1">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6961,7 +6891,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15" thickBot="1">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6988,7 +6918,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15" thickBot="1">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7015,7 +6945,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15" thickBot="1">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7069,7 +6999,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="130" spans="1:8" ht="15" thickBot="1">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -7096,7 +7026,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="131" spans="1:8" ht="15" thickBot="1">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -7123,7 +7053,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="132" spans="1:8" ht="15" thickBot="1">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -7150,7 +7080,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="133" spans="1:8" ht="15" thickBot="1">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -7177,7 +7107,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="134" spans="1:8" ht="15" thickBot="1">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7204,7 +7134,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="135" spans="1:8" ht="15" thickBot="1">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7231,7 +7161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="136" spans="1:8" ht="15" thickBot="1">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -7258,7 +7188,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="137" spans="1:8" ht="15" thickBot="1">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -7285,7 +7215,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="138" spans="1:8" ht="15" thickBot="1">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -7339,7 +7269,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="140" spans="1:8" ht="15" thickBot="1">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -7393,7 +7323,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="142" spans="1:8" ht="15" thickBot="1">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -7420,7 +7350,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="143" spans="1:8" ht="15" thickBot="1">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7447,7 +7377,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="144" spans="1:8" ht="15" thickBot="1">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7501,7 +7431,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="146" spans="1:8" ht="15" thickBot="1">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7528,7 +7458,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="147" spans="1:8" ht="15" thickBot="1">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7555,7 +7485,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="148" spans="1:8" ht="15" thickBot="1">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7582,7 +7512,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="15" thickBot="1">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7609,7 +7539,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="15" thickBot="1">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7636,7 +7566,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="15" thickBot="1">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7663,7 +7593,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="15" thickBot="1">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7690,7 +7620,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="15" thickBot="1">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7717,7 +7647,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="43.5" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="43.5" thickBot="1">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7771,7 +7701,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="15" thickBot="1">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7798,7 +7728,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="15" thickBot="1">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7825,7 +7755,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="15" thickBot="1">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7852,7 +7782,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="15" thickBot="1">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7879,7 +7809,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="15" thickBot="1">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7906,7 +7836,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="15" thickBot="1">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7933,7 +7863,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="15" thickBot="1">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7960,7 +7890,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="15" thickBot="1">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7987,7 +7917,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.25" hidden="1">
+    <row r="164" spans="1:8" ht="14.25">
       <c r="G164" s="14" t="s">
         <v>618</v>
       </c>
@@ -7995,7 +7925,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.25" hidden="1">
+    <row r="165" spans="1:8" ht="14.25">
       <c r="G165" s="14" t="s">
         <v>616</v>
       </c>
@@ -8003,7 +7933,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.25" hidden="1">
+    <row r="166" spans="1:8" ht="14.25">
       <c r="G166" s="14" t="s">
         <v>620</v>
       </c>
@@ -8011,7 +7941,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.25" hidden="1">
+    <row r="167" spans="1:8" ht="14.25">
       <c r="G167" s="14" t="s">
         <v>715</v>
       </c>
@@ -8019,7 +7949,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.25" hidden="1">
+    <row r="168" spans="1:8" ht="14.25">
       <c r="G168" s="14" t="s">
         <v>622</v>
       </c>
@@ -8027,7 +7957,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.25" hidden="1">
+    <row r="169" spans="1:8" ht="14.25">
       <c r="G169" s="14" t="s">
         <v>628</v>
       </c>
@@ -8035,7 +7965,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.25" hidden="1">
+    <row r="170" spans="1:8" ht="14.25">
       <c r="G170" s="14" t="s">
         <v>626</v>
       </c>
@@ -8043,7 +7973,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.25" hidden="1">
+    <row r="171" spans="1:8" ht="14.25">
       <c r="G171" s="14" t="s">
         <v>666</v>
       </c>
@@ -8051,7 +7981,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.25" hidden="1">
+    <row r="172" spans="1:8" ht="14.25">
       <c r="G172" s="14" t="s">
         <v>716</v>
       </c>
@@ -8059,7 +7989,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.25" hidden="1">
+    <row r="173" spans="1:8" ht="14.25">
       <c r="G173" s="14" t="s">
         <v>652</v>
       </c>
@@ -8067,7 +7997,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.25" hidden="1">
+    <row r="174" spans="1:8" ht="14.25">
       <c r="G174" s="14" t="s">
         <v>718</v>
       </c>
@@ -8075,7 +8005,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.25" hidden="1">
+    <row r="175" spans="1:8" ht="14.25">
       <c r="G175" s="14" t="s">
         <v>720</v>
       </c>
@@ -8084,26 +8014,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H175">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ar"/>
-        <filter val="gu"/>
-        <filter val="he"/>
-        <filter val="km"/>
-        <filter val="kn"/>
-        <filter val="la"/>
-        <filter val="lo"/>
-        <filter val="ml"/>
-        <filter val="mn"/>
-        <filter val="my"/>
-        <filter val="si"/>
-        <filter val="ta"/>
-        <filter val="te"/>
-        <filter val="th"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:H175"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B155" r:id="rId1" location="cite_note-3" display="https://zh.wikipedia.org/wiki/Unicode%E5%AD%97%E7%AC%A6%E5%B9%B3%E9%9D%A2%E6%98%A0%E5%B0%84 - cite_note-3"/>

--- a/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
+++ b/src/main/resources/excel文件/需要识别的语言及其unicode码.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$2:$H$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet1 (3)'!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="733">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3260,8 +3262,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8022,4 +8024,308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
+      <c r="A2" s="4">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("""",B2,"""",":","""",C2,"""",",")</f>
+        <v>"0590-05FF":"he",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="4">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E18" si="0">CONCATENATE("""",B3,"""",":","""",C3,"""",",")</f>
+        <v>"0600-06FF":"ar",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="4">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>"0750-077F":"ar",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="4">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>"08A0-08FF":"ar",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="4">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>"0A80-0AFF":"gu",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="4">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>"0B80-0BFF":"ta",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>"0C00-0C7F":"te",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="4">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"0C80-0CFF":"kn",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="4">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>726</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>"0D00-0D7F":"ml",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="4">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>"0D80-0DFF":"si",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="4">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>"0E00-0E7F":"th",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="4">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>727</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>"0E80-0EFF":"lo",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="8">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>568</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>"1000-109F":"my",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="10">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>729</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>"1780-17FF":"km",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="10">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>730</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>"1800-18AF":"mn",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="10">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" t="s">
+        <v>568</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>"A9E0-A9FF":"my",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="10">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" t="s">
+        <v>568</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>"AA60-AA7F":"my",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="10">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>732</v>
+      </c>
+      <c r="C19" t="s">
+        <v>466</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE("""",B19,"""",":","""",C19,"""",",")</f>
+        <v>"FB50-FDFF":"ar",</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>